--- a/Project 1/Transformer Design_CA.xlsx
+++ b/Project 1/Transformer Design_CA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>N1</t>
   </si>
@@ -187,6 +187,15 @@
   <si>
     <t>Reluctance</t>
   </si>
+  <si>
+    <t>L1 (H)</t>
+  </si>
+  <si>
+    <t>L2 (H)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of Copper Conductor_Input (mm^2) </t>
+  </si>
 </sst>
 </file>
 
@@ -243,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,9 +368,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +375,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3173,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,7 +3221,8 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="17.85546875" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
     <col min="23" max="23" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -3201,25 +3230,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -3267,11 +3296,17 @@
       <c r="P2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="35">
         <v>50</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
+      <c r="T2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3305,8 +3340,8 @@
         <v>1.9642019519519522</v>
       </c>
       <c r="I3" s="2">
-        <f>(B3/C3)^2/Sheet2!B3</f>
-        <v>6.7298166812554698E-4</v>
+        <f>(B3)^2/Sheet2!B3</f>
+        <v>42.061354257846695</v>
       </c>
       <c r="J3" s="2">
         <f>1*E3*$Q$9</f>
@@ -3341,6 +3376,14 @@
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
+      <c r="T3">
+        <f>0.02*($Q$3/$S$4)/(2*3.14*50)</f>
+        <v>0.15162420382165606</v>
+      </c>
+      <c r="U3">
+        <f>0.02*($Q$4/$S$5)/(2*3.14*50)</f>
+        <v>7.9617834394904455E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3373,9 +3416,9 @@
         <f>0.000000017*Sheet2!O4/(Sheet2!S4*10^-6)</f>
         <v>3.2264519519519523</v>
       </c>
-      <c r="I4" s="21">
-        <f>(B4/C4)^2/Sheet2!B4</f>
-        <v>4.8952468619246849E-4</v>
+      <c r="I4" s="29">
+        <f>(B4)^2/Sheet2!B4</f>
+        <v>122.38117154811714</v>
       </c>
       <c r="J4" s="21">
         <f>1*E4*$Q$9</f>
@@ -3414,20 +3457,28 @@
         <f>Q5/Q3</f>
         <v>14.492753623188406</v>
       </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">0.02*($Q$3/$S$4)/(2*3.14*50)</f>
+        <v>0.15162420382165606</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U7" si="5">0.02*($Q$4/$S$5)/(2*3.14*50)</f>
+        <v>7.9617834394904455E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="34">
         <f>$Q$3*Sheet2!I5</f>
         <v>1035</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="34">
         <f>$Q$4*Sheet2!I5</f>
         <v>750</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="24">
@@ -3447,8 +3498,8 @@
         <v>4.4887019519519527</v>
       </c>
       <c r="I5" s="24">
-        <f>(B5/C5)^2/Sheet2!B5</f>
-        <v>3.8466402687441914E-4</v>
+        <f>(B5)^2/Sheet2!B5</f>
+        <v>216.37351511686083</v>
       </c>
       <c r="J5" s="24">
         <f>1*E5*$Q$9</f>
@@ -3459,102 +3510,118 @@
         <v>3672.5743243243246</v>
       </c>
       <c r="L5" s="24">
-        <f t="shared" ref="L5" si="4">(500000*0.9-(J5+K5))/(500000*0.9)*100</f>
+        <f t="shared" ref="L5" si="6">(500000*0.9-(J5+K5))/(500000*0.9)*100</f>
         <v>98.868518908576021</v>
       </c>
       <c r="M5" s="24">
-        <f t="shared" ref="M5" si="5">E5*3</f>
+        <f t="shared" ref="M5" si="7">E5*3</f>
         <v>4481.3386960534099</v>
       </c>
       <c r="N5" s="24">
-        <f t="shared" ref="N5" si="6">F5*10</f>
+        <f t="shared" ref="N5" si="8">F5*10</f>
         <v>2150.7363363363361</v>
       </c>
       <c r="O5" s="24">
-        <f t="shared" ref="O5" si="7">M5+N5</f>
+        <f t="shared" ref="O5" si="9">M5+N5</f>
         <v>6632.0750323897464</v>
       </c>
       <c r="P5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <f>500000</f>
         <v>500000</v>
       </c>
       <c r="R5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="30">
         <f>Q5/Q4</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>0.15162420382165606</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>7.9617834394904455E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="34">
         <f>$Q$3*Sheet2!I6</f>
         <v>1380</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="34">
         <f>$Q$4*Sheet2!I6</f>
         <v>1000</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="34">
         <v>1</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="24">
         <f>Sheet2!C6*Sheet2!M6</f>
         <v>972.85235686136559</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="24">
         <f>(Sheet2!P6+Sheet2!Q6)*8960</f>
         <v>275.55363363363364</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="24">
         <f>0.000000017*Sheet2!N6/(Sheet2!R6*10^-6)</f>
         <v>11.449936210810812</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="24">
         <f>0.000000017*Sheet2!O6/(Sheet2!S6*10^-6)</f>
         <v>5.7509519519519516</v>
       </c>
-      <c r="I6" s="21">
-        <f>(B6/C6)^2/Sheet2!B6</f>
-        <v>3.1680211914292429E-4</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="I6" s="24">
+        <f>(B6)^2/Sheet2!B6</f>
+        <v>316.80211914292437</v>
+      </c>
+      <c r="J6" s="24">
         <f>1*E6*$Q$9</f>
         <v>924.20973901829723</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="24">
         <f>G6*$S$4^2+H6*$S$5^2</f>
         <v>4705.3243243243251</v>
       </c>
-      <c r="L6" s="21">
-        <f t="shared" ref="L6:L7" si="8">(500000*0.9-(J6+K6))/(500000*0.9)*100</f>
+      <c r="L6" s="24">
+        <f t="shared" ref="L6:L7" si="10">(500000*0.9-(J6+K6))/(500000*0.9)*100</f>
         <v>98.748992430368304</v>
       </c>
-      <c r="M6" s="21">
-        <f t="shared" ref="M6:M7" si="9">E6*3</f>
+      <c r="M6" s="24">
+        <f t="shared" ref="M6:M7" si="11">E6*3</f>
         <v>2918.5570705840969</v>
       </c>
-      <c r="N6" s="21">
-        <f t="shared" ref="N6:N7" si="10">F6*10</f>
+      <c r="N6" s="24">
+        <f t="shared" ref="N6:N7" si="12">F6*10</f>
         <v>2755.5363363363363</v>
       </c>
-      <c r="O6" s="21">
-        <f t="shared" ref="O6:O7" si="11">M6+N6</f>
+      <c r="O6" s="24">
+        <f t="shared" ref="O6:O7" si="13">M6+N6</f>
         <v>5674.0934069204332</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>0.15162420382165606</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>7.9617834394904455E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="21">
@@ -3584,9 +3651,9 @@
         <f>0.000000017*Sheet2!O7/(Sheet2!S7*10^-6)</f>
         <v>7.0132019519519542</v>
       </c>
-      <c r="I7" s="21">
-        <f>(B7/C7)^2/Sheet2!B7</f>
-        <v>2.6929369026770073E-4</v>
+      <c r="I7" s="29">
+        <f>(B7)^2/Sheet2!B7</f>
+        <v>420.77139104328245</v>
       </c>
       <c r="J7" s="21">
         <f>1*E7*$Q$9</f>
@@ -3597,19 +3664,19 @@
         <v>5738.0743243243251</v>
       </c>
       <c r="L7" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>98.575513293573863</v>
       </c>
       <c r="M7" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2122.4711197684169</v>
       </c>
       <c r="N7" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3360.3363363363364</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5482.8074561047533</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -3620,8 +3687,14 @@
       </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>0.15162420382165606</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>7.9617834394904455E-2</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="2"/>
     </row>
@@ -3669,10 +3742,10 @@
       <c r="P9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="35">
         <v>0.95</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="35">
         <v>2.35</v>
       </c>
       <c r="S9" s="18"/>
@@ -3728,7 +3801,7 @@
       <c r="P11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="35">
         <f>0.6</f>
         <v>0.6</v>
       </c>
@@ -4069,8 +4142,8 @@
         <v>1.7302179679679681</v>
       </c>
       <c r="I33" s="21">
-        <f>(B33/C33)^2/Sheet2!B33</f>
-        <v>5.6677735769575059E-4</v>
+        <f>(B33)^2/Sheet2!B33</f>
+        <v>35.423584855984416</v>
       </c>
       <c r="J33" s="21">
         <f>1*E33*$R$9</f>
@@ -4137,12 +4210,12 @@
         <f>0.000000017*Sheet2!O34/(Sheet2!S34*10^-6)</f>
         <v>2.9924679679679675</v>
       </c>
-      <c r="I34" s="21">
-        <f>(B34/C34)^2/Sheet2!B34</f>
-        <v>3.8466402687441914E-4</v>
+      <c r="I34" s="29">
+        <f>(B34)^2/Sheet2!B34</f>
+        <v>96.166006718604805</v>
       </c>
       <c r="J34" s="21">
-        <f t="shared" ref="J34:J37" si="12">1*E34*$R$9</f>
+        <f t="shared" ref="J34:J37" si="14">1*E34*$R$9</f>
         <v>3510.3819785751712</v>
       </c>
       <c r="K34" s="21">
@@ -4150,19 +4223,19 @@
         <v>2448.3828828828823</v>
       </c>
       <c r="L34" s="21">
-        <f t="shared" ref="L34:L37" si="13">(500000*0.9-(J34+K34))/(500000*0.9)*100</f>
+        <f t="shared" ref="L34:L37" si="15">(500000*0.9-(J34+K34))/(500000*0.9)*100</f>
         <v>98.675830030787097</v>
       </c>
       <c r="M34" s="21">
-        <f t="shared" ref="M34:M37" si="14">E34*3</f>
+        <f t="shared" ref="M34:M37" si="16">E34*3</f>
         <v>4481.3386960534099</v>
       </c>
       <c r="N34" s="21">
-        <f t="shared" ref="N34:N37" si="15">F34*10</f>
+        <f t="shared" ref="N34:N37" si="17">F34*10</f>
         <v>1433.8242242242241</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" ref="O34:O37" si="16">M34+N34</f>
+        <f t="shared" ref="O34:O37" si="18">M34+N34</f>
         <v>5915.1629202776339</v>
       </c>
       <c r="P34" s="2"/>
@@ -4206,12 +4279,12 @@
         <f>0.000000017*Sheet2!O35/(Sheet2!S35*10^-6)</f>
         <v>4.2547179679679683</v>
       </c>
-      <c r="I35" s="24">
-        <f>(B35/C35)^2/Sheet2!B35</f>
-        <v>2.9112240824385354E-4</v>
+      <c r="I35" s="29">
+        <f>(B35)^2/Sheet2!B35</f>
+        <v>163.75635463716765</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1929.4890875749509</v>
       </c>
       <c r="K35" s="24">
@@ -4219,19 +4292,19 @@
         <v>3481.1328828828828</v>
       </c>
       <c r="L35" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>98.79763956212048</v>
       </c>
       <c r="M35" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2463.1775586063204</v>
       </c>
       <c r="N35" s="24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2038.6242242242238</v>
       </c>
       <c r="O35" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4501.8017828305437</v>
       </c>
       <c r="P35" s="24"/>
@@ -4275,12 +4348,12 @@
         <f>0.000000017*Sheet2!O36/(Sheet2!S36*10^-6)</f>
         <v>5.5169679679679682</v>
       </c>
-      <c r="I36" s="21">
-        <f>(B36/C36)^2/Sheet2!B36</f>
-        <v>2.3417606822730825E-4</v>
+      <c r="I36" s="29">
+        <f>(B36)^2/Sheet2!B36</f>
+        <v>234.17606822730829</v>
       </c>
       <c r="J36" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1293.0797288780266</v>
       </c>
       <c r="K36" s="21">
@@ -4288,19 +4361,19 @@
         <v>4513.8828828828828</v>
       </c>
       <c r="L36" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>98.709563864053138</v>
       </c>
       <c r="M36" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1650.7400794187574</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2643.4242242242244</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4294.1643036429814</v>
       </c>
     </row>
@@ -4335,12 +4408,12 @@
         <f>0.000000017*Sheet2!O37/(Sheet2!S37*10^-6)</f>
         <v>6.7792179679679681</v>
       </c>
-      <c r="I37" s="21">
-        <f>(B37/C37)^2/Sheet2!B37</f>
-        <v>1.9586332089891725E-4</v>
+      <c r="I37" s="29">
+        <f>(B37)^2/Sheet2!B37</f>
+        <v>306.03643890455828</v>
       </c>
       <c r="J37" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>960.52598143689238</v>
       </c>
       <c r="K37" s="21">
@@ -4348,19 +4421,19 @@
         <v>5546.6328828828828</v>
       </c>
       <c r="L37" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>98.553964696817815</v>
       </c>
       <c r="M37" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1226.2033805577348</v>
       </c>
       <c r="N37" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3248.2242242242246</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4474.4276047819594</v>
       </c>
     </row>
@@ -4395,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,28 +4491,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -4491,7 +4564,7 @@
         <v>33</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>27</v>
@@ -4699,27 +4772,27 @@
         <f>7850</f>
         <v>7850</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="34">
         <v>0.9</v>
       </c>
       <c r="E5" s="24">
         <f t="shared" ref="E5" si="7">J5/D5</f>
         <v>0.16683350016683346</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="34">
         <v>0.15</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="34">
         <v>0.15</v>
       </c>
       <c r="H5" s="24">
         <f>(500000*0.9-(Sheet1!J5+Sheet1!K5))/(500000*0.9)*100</f>
         <v>98.868518908576021</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="34">
         <v>0.03</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="34">
         <f>1/(4.44*Sheet1!$Q$2*Sheet1!D5*I5)</f>
         <v>0.15015015015015012</v>
       </c>
@@ -4767,7 +4840,7 @@
         <f>S5*Sheet1!C5*10^-6/Sheet1!$Q$11</f>
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="34">
         <f t="shared" ref="V5" si="12">T5+U5</f>
         <v>1.6666666666666666E-2</v>
       </c>
